--- a/biology/Zoologie/Grandilithus_wanshou/Grandilithus_wanshou.xlsx
+++ b/biology/Zoologie/Grandilithus_wanshou/Grandilithus_wanshou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus wanshou est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus wanshou est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 4,60 mm et le mâle paratype 4,20 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 4,60 mm et le mâle paratype 4,20 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia  par Yin en 2012. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020[3] puis dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia  par Yin en 2012. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020 puis dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yin, Peng, Yan, Bao, Xu, Tang, Zhou &amp; Liu, 2012 : Fauna Hunan: Araneae in Hunan, China. Hunan Science and Technology Press, Changsha, p. 1-1590.</t>
         </is>
